--- a/Documents/Design/Thietkemanhinh.xlsx
+++ b/Documents/Design/Thietkemanhinh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Public\CNPM\17CNPM.HC2017\Documents\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{87EBA44B-3EA7-48C0-9E00-74289426FCE0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{62C0E80C-A437-420F-81D1-22197B605001}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="116">
   <si>
     <t>HEADER</t>
   </si>
@@ -185,15 +185,9 @@
     <t>THÔNG TIN THÀNH VIÊN</t>
   </si>
   <si>
-    <t>VẼ CÂY</t>
-  </si>
-  <si>
     <t>Mật khẩu</t>
   </si>
   <si>
-    <t>Về index</t>
-  </si>
-  <si>
     <t>Nhập lại mật khẩu</t>
   </si>
   <si>
@@ -221,9 +215,6 @@
     <t>LOGO luôn về trang này</t>
   </si>
   <si>
-    <t>Cách tạo cây gia tộc</t>
-  </si>
-  <si>
     <t>*Input nhập tên cây gia tộc</t>
   </si>
   <si>
@@ -245,9 +236,6 @@
     <t>Trim chuỗi</t>
   </si>
   <si>
-    <t>*Cách tạo cây gia tộc là link và di chuyển sang màn hình hướng dẫn tạo cây</t>
-  </si>
-  <si>
     <t>Con</t>
   </si>
   <si>
@@ -266,9 +254,6 @@
     <t>*Combobox quan hệ</t>
   </si>
   <si>
-    <t>Chọn combobox các field  ở trong tin thành viên sẽ rỗng và bật button Thêm , tắt nút sửa xóa</t>
-  </si>
-  <si>
     <t>Khi Thêm kiểm tra validate các field</t>
   </si>
   <si>
@@ -302,9 +287,6 @@
     <t>Chỉ được xóa khi nó là nút con</t>
   </si>
   <si>
-    <t>*View vẽ cây</t>
-  </si>
-  <si>
     <t>Nếu tồn tại 1 cây gia phả</t>
   </si>
   <si>
@@ -329,66 +311,27 @@
     <t>Cho phép kéo thả theo ý người dùng nhưng không lưu vị trí hay thay đổi dữ liệu</t>
   </si>
   <si>
-    <t>LOGO sẽ chuyển về trang Index lúc chưa đăng nhập</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Btn Đắng nhập</t>
-  </si>
-  <si>
-    <t>Thành công sẽ chuyển sang View tạo cây (Lưu session)</t>
-  </si>
-  <si>
-    <t>Fail hiện validate</t>
-  </si>
-  <si>
     <t>Sang trang register</t>
   </si>
   <si>
-    <t>chuyển về trang Index lúc chưa đăng nhập</t>
-  </si>
-  <si>
     <t>Tên người dùng</t>
   </si>
   <si>
-    <t>Validate Email, password, tên, comfirm pwd, capcha</t>
-  </si>
-  <si>
-    <t>Btn Đắng ký</t>
-  </si>
-  <si>
-    <t>Thành công sẽ chuyển sang View Login</t>
-  </si>
-  <si>
     <t>Sang trang login</t>
   </si>
   <si>
-    <t>Kiểm tra email tồn tại, và gửi mail chúc mưng  nếu đăng ký thành công</t>
-  </si>
-  <si>
     <t>Chọn 1 thành viên trên cây sẽ tự động hiển thị thông tin thành viên</t>
   </si>
   <si>
     <t>IMAGE</t>
   </si>
   <si>
-    <t>Tạo cây</t>
-  </si>
-  <si>
-    <t>Thêm thành viên</t>
-  </si>
-  <si>
     <t>*Click Đăng nhập sẽ di chuyển sang màn hình Login</t>
   </si>
   <si>
     <t>*Click Đăng ký sẽ di chuyển sang màn hình Register</t>
   </si>
   <si>
-    <t>*Click Tạo cây:</t>
-  </si>
-  <si>
     <t>_Khi đăng đăng nhập sẽ di chuyển vào màn hình Home</t>
   </si>
   <si>
@@ -404,23 +347,149 @@
     <t>_Click xem sẽ di chuyển sang màn hình Create với id của cây đã chọn</t>
   </si>
   <si>
-    <t>_Click xóa sẽ hiện dialog confirm YES -&gt; xóa vật lý, NO -&gt; Không làm gì</t>
-  </si>
-  <si>
     <t>*Tên đăng nhập</t>
   </si>
   <si>
-    <t>_type = text, maxlength=50</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kiểm tra trùng tài khoản hiện hiện message </t>
+  </si>
+  <si>
+    <t>Lập cây gia phả</t>
+  </si>
+  <si>
+    <t>*Click Lập cây gia phả:</t>
+  </si>
+  <si>
+    <t>_Click xóa sẽ hiện dialog confirm YES -&gt; xóa vật lý theo id, NO -&gt; Không làm gì</t>
+  </si>
+  <si>
+    <t>Họ tên</t>
+  </si>
+  <si>
+    <t>Giới tính</t>
+  </si>
+  <si>
+    <t>Ngày sinh</t>
+  </si>
+  <si>
+    <t>Ngày mất</t>
+  </si>
+  <si>
+    <t>Quê quán</t>
+  </si>
+  <si>
+    <t>Nghề nghiệp</t>
+  </si>
+  <si>
+    <t>Nơi ở</t>
+  </si>
+  <si>
+    <t>Nơi chôn cất</t>
+  </si>
+  <si>
+    <t>Nguyên nhân mất</t>
+  </si>
+  <si>
+    <t>Loại quan hệ</t>
+  </si>
+  <si>
+    <t>▼</t>
+  </si>
+  <si>
+    <t>○ Nam ○ Nữ ○ Khác</t>
+  </si>
+  <si>
+    <t>֎</t>
+  </si>
+  <si>
+    <t>Hiển thị cây</t>
+  </si>
+  <si>
+    <t>*Họ tên: text, maxlength 200, require</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>Khác</t>
+  </si>
+  <si>
+    <t>*Ngày sinh, ngày mất: dùng thư viện calendate có sẵn format dd/mm/yyyy</t>
+  </si>
+  <si>
+    <t>*Quê quán: text, maxlength 500, require</t>
+  </si>
+  <si>
+    <t>*Giới tính: radio,require</t>
+  </si>
+  <si>
+    <t>*Nghề nghiệp: text, maxlength 500</t>
+  </si>
+  <si>
+    <t>*Nơi ở: text, maxlength 500</t>
+  </si>
+  <si>
+    <t>*Nơi chôn cất, nơi mất: combobox load từ db</t>
+  </si>
+  <si>
+    <t>*Hiển thị cây</t>
+  </si>
+  <si>
+    <t>Tên đăng nhập</t>
+  </si>
+  <si>
+    <t>_type = text, maxlength=50, require</t>
+  </si>
+  <si>
+    <t>*Mật khẩu</t>
+  </si>
+  <si>
+    <t>*Click Đăng nhập</t>
+  </si>
+  <si>
+    <t>Lấy value từ tên đăng nhập và mật khẩu truy vấn vào database</t>
+  </si>
+  <si>
+    <t>Kiểm tra trùng tài khoản hiện hiện message</t>
+  </si>
+  <si>
+    <t>_Nếu tồn tại sẽ chuyển về page Index, lưu session</t>
+  </si>
+  <si>
+    <t>_Nếu không tồn tại hiện validate</t>
+  </si>
+  <si>
+    <t>*Đăng ký</t>
+  </si>
+  <si>
+    <t>*LOGO sẽ chuyển về trang Index lúc chưa đăng nhập</t>
+  </si>
+  <si>
+    <t>*Click Đăng ký :</t>
+  </si>
+  <si>
+    <t>Nếu tên đăng nhập đã tồn tại hiện validate</t>
+  </si>
+  <si>
+    <t>Nếu các field dữ liệu đúng yêu cầu lưu vào database với id riêng</t>
+  </si>
+  <si>
+    <t>*Đăng nhập</t>
+  </si>
+  <si>
+    <t>Lưu thành công chuyển sang page Login</t>
+  </si>
+  <si>
+    <t>Ngược lại validate không thể tạo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -615,6 +684,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tw Cen MT Condensed"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="23">
     <fill>
@@ -749,7 +824,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -852,6 +927,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -860,7 +961,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -901,14 +1002,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -926,6 +1038,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -961,9 +1088,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -979,10 +1103,34 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
@@ -997,28 +1145,8 @@
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1340,8 +1468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:X57"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V36" sqref="V36"/>
+    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,13 +1480,13 @@
     <row r="7" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
@@ -1370,20 +1498,20 @@
       <c r="X7" s="2"/>
     </row>
     <row r="8" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="69"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="37"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
@@ -1394,43 +1522,43 @@
       <c r="X8" s="2"/>
     </row>
     <row r="9" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="69"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="37"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
-      <c r="P9" s="56" t="s">
+      <c r="P9" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56" t="s">
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="S9" s="56"/>
+      <c r="S9" s="55"/>
     </row>
     <row r="10" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="69"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="37"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
@@ -1440,14 +1568,14 @@
       <c r="S10" s="10"/>
     </row>
     <row r="11" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="69"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="37"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
@@ -1458,342 +1586,342 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E12" s="1"/>
-      <c r="F12" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
+      <c r="F12" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="47"/>
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E13" s="1"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="E14" s="1"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E15" s="1"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="47"/>
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E16" s="1"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E17" s="1"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E18" s="1"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="40"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E19" s="1"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="40"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E20" s="1"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="40"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E21" s="1"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40"/>
-      <c r="M21" s="40"/>
-      <c r="N21" s="40"/>
-      <c r="O21" s="40"/>
-      <c r="P21" s="40"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="40"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
       <c r="S21" s="1"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="40"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="40"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
       <c r="S22" s="1"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
       <c r="S24" s="1"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E25" s="1"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
-      <c r="L25" s="40"/>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="40"/>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="40"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
       <c r="S25" s="1"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="41" t="s">
+      <c r="G26" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="42"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="42"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="42"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="42"/>
-      <c r="P30" s="42"/>
-      <c r="Q30" s="42"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
     </row>
@@ -1835,19 +1963,17 @@
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
-      <c r="H33" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="I33" s="44"/>
-      <c r="J33" s="44"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="O33" s="44"/>
-      <c r="P33" s="44"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="50" t="s">
+        <v>72</v>
+      </c>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="52"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="53"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
@@ -1856,15 +1982,15 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="44"/>
-      <c r="O34" s="44"/>
-      <c r="P34" s="44"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="53"/>
+      <c r="O34" s="53"/>
+      <c r="P34" s="53"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
@@ -1873,15 +1999,15 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="44"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="44"/>
-      <c r="P35" s="44"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="53"/>
+      <c r="O35" s="53"/>
+      <c r="P35" s="53"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
@@ -2006,12 +2132,12 @@
       <c r="S42" s="9"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
@@ -2029,10 +2155,10 @@
       <c r="S43" s="9"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
@@ -2050,10 +2176,10 @@
       <c r="S44" s="9"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
@@ -2089,37 +2215,37 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2129,7 +2255,7 @@
     <mergeCell ref="A8:D10"/>
     <mergeCell ref="F12:R25"/>
     <mergeCell ref="G26:Q30"/>
-    <mergeCell ref="H33:J35"/>
+    <mergeCell ref="K33:M35"/>
     <mergeCell ref="N33:P35"/>
     <mergeCell ref="G7:K11"/>
     <mergeCell ref="R9:S9"/>
@@ -2174,8 +2300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A6:AC62"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q63" sqref="Q63"/>
+    <sheetView topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2186,13 +2312,13 @@
     <row r="6" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
@@ -2203,14 +2329,14 @@
       <c r="S6" s="10"/>
     </row>
     <row r="7" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="69"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="37"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
@@ -2220,33 +2346,33 @@
       <c r="S7" s="10"/>
     </row>
     <row r="8" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="69"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="37"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
-      <c r="R8" s="56" t="s">
+      <c r="R8" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="S8" s="56"/>
+      <c r="S8" s="55"/>
     </row>
     <row r="9" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="69"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="37"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
@@ -2256,14 +2382,14 @@
       <c r="S9" s="10"/>
     </row>
     <row r="10" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="69"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="37"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
@@ -2305,90 +2431,90 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="11"/>
-      <c r="Y12" s="78"/>
-      <c r="Z12" s="78"/>
-      <c r="AA12" s="78"/>
-      <c r="AB12" s="78"/>
-      <c r="AC12" s="78"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="56"/>
     </row>
     <row r="13" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13" s="11"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="52" t="s">
+      <c r="I13" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="11"/>
-      <c r="Y13" s="78"/>
-      <c r="Z13" s="78"/>
-      <c r="AA13" s="78"/>
-      <c r="AB13" s="78"/>
-      <c r="AC13" s="78"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="56"/>
     </row>
     <row r="14" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="11"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="11"/>
-      <c r="Y14" s="78"/>
-      <c r="Z14" s="78"/>
-      <c r="AA14" s="78"/>
-      <c r="AB14" s="78"/>
-      <c r="AC14" s="78"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
     </row>
     <row r="15" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E15" s="11"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="11"/>
-      <c r="Y15" s="78"/>
-      <c r="Z15" s="78"/>
-      <c r="AA15" s="78"/>
-      <c r="AB15" s="78"/>
-      <c r="AC15" s="78"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="56"/>
+      <c r="AB15" s="56"/>
+      <c r="AC15" s="56"/>
     </row>
     <row r="16" spans="5:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E16" s="11"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="52" t="s">
+      <c r="H16" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -2397,24 +2523,24 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="11"/>
-      <c r="Y16" s="78"/>
-      <c r="Z16" s="78"/>
-      <c r="AA16" s="78"/>
-      <c r="AB16" s="78"/>
-      <c r="AC16" s="78"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
     </row>
     <row r="17" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E17" s="11"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="58"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -2424,10 +2550,10 @@
       <c r="E18" s="11"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -2461,11 +2587,11 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="59" t="s">
+      <c r="K20" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -2480,9 +2606,9 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -2514,10 +2640,8 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-      <c r="K23" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="L23" s="57"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -2582,15 +2706,15 @@
       <c r="F27" s="16"/>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="52" t="s">
+      <c r="I27" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
-      <c r="L27" s="52"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
       <c r="P27" s="17"/>
       <c r="Q27" s="17"/>
       <c r="R27" s="16"/>
@@ -2601,13 +2725,13 @@
       <c r="F28" s="16"/>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="64"/>
       <c r="P28" s="17"/>
       <c r="Q28" s="17"/>
       <c r="R28" s="16"/>
@@ -2618,13 +2742,13 @@
       <c r="F29" s="16"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="52"/>
+      <c r="I29" s="64"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="64"/>
       <c r="P29" s="17"/>
       <c r="Q29" s="17"/>
       <c r="R29" s="16"/>
@@ -2633,25 +2757,25 @@
     <row r="30" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E30" s="13"/>
       <c r="F30" s="17"/>
-      <c r="G30" s="53" t="s">
+      <c r="G30" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="54" t="s">
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="45" t="s">
+      <c r="K30" s="67"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="O30" s="46"/>
-      <c r="P30" s="45" t="s">
+      <c r="O30" s="58"/>
+      <c r="P30" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="Q30" s="46"/>
+      <c r="Q30" s="58"/>
       <c r="R30" s="17"/>
       <c r="S30" s="13"/>
     </row>
@@ -2665,10 +2789,10 @@
       <c r="K31" s="26"/>
       <c r="L31" s="26"/>
       <c r="M31" s="25"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="48"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="60"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="60"/>
       <c r="R31" s="17"/>
       <c r="S31" s="13"/>
     </row>
@@ -2682,10 +2806,10 @@
       <c r="K32" s="18"/>
       <c r="L32" s="18"/>
       <c r="M32" s="20"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="48"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="60"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="60"/>
       <c r="R32" s="17"/>
       <c r="S32" s="13"/>
     </row>
@@ -2699,10 +2823,10 @@
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
       <c r="M33" s="20"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="48"/>
-      <c r="P33" s="47"/>
-      <c r="Q33" s="48"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="60"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="60"/>
       <c r="R33" s="17"/>
       <c r="S33" s="13"/>
     </row>
@@ -2716,10 +2840,10 @@
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
       <c r="M34" s="20"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="48"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="60"/>
       <c r="R34" s="17"/>
       <c r="S34" s="13"/>
     </row>
@@ -2733,10 +2857,10 @@
       <c r="K35" s="18"/>
       <c r="L35" s="18"/>
       <c r="M35" s="20"/>
-      <c r="N35" s="47"/>
-      <c r="O35" s="48"/>
-      <c r="P35" s="47"/>
-      <c r="Q35" s="48"/>
+      <c r="N35" s="59"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="60"/>
       <c r="R35" s="17"/>
       <c r="S35" s="13"/>
     </row>
@@ -2750,10 +2874,10 @@
       <c r="K36" s="18"/>
       <c r="L36" s="18"/>
       <c r="M36" s="20"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="48"/>
-      <c r="P36" s="47"/>
-      <c r="Q36" s="48"/>
+      <c r="N36" s="59"/>
+      <c r="O36" s="60"/>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="60"/>
       <c r="R36" s="17"/>
       <c r="S36" s="13"/>
     </row>
@@ -2767,10 +2891,10 @@
       <c r="K37" s="18"/>
       <c r="L37" s="18"/>
       <c r="M37" s="20"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="47"/>
-      <c r="Q37" s="48"/>
+      <c r="N37" s="59"/>
+      <c r="O37" s="60"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="60"/>
       <c r="R37" s="17"/>
       <c r="S37" s="13"/>
     </row>
@@ -2784,10 +2908,10 @@
       <c r="K38" s="18"/>
       <c r="L38" s="18"/>
       <c r="M38" s="20"/>
-      <c r="N38" s="47"/>
-      <c r="O38" s="48"/>
-      <c r="P38" s="47"/>
-      <c r="Q38" s="48"/>
+      <c r="N38" s="59"/>
+      <c r="O38" s="60"/>
+      <c r="P38" s="59"/>
+      <c r="Q38" s="60"/>
       <c r="R38" s="17"/>
       <c r="S38" s="13"/>
     </row>
@@ -2801,10 +2925,10 @@
       <c r="K39" s="23"/>
       <c r="L39" s="23"/>
       <c r="M39" s="22"/>
-      <c r="N39" s="49"/>
-      <c r="O39" s="50"/>
-      <c r="P39" s="49"/>
-      <c r="Q39" s="50"/>
+      <c r="N39" s="61"/>
+      <c r="O39" s="62"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="62"/>
       <c r="R39" s="17"/>
       <c r="S39" s="13"/>
     </row>
@@ -2843,153 +2967,142 @@
       <c r="S41" s="13"/>
     </row>
     <row r="42" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E42" s="51" t="s">
+      <c r="E42" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="51"/>
-      <c r="O42" s="51"/>
-      <c r="P42" s="51"/>
-      <c r="Q42" s="51"/>
-      <c r="R42" s="51"/>
-      <c r="S42" s="51"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="63"/>
+      <c r="N42" s="63"/>
+      <c r="O42" s="63"/>
+      <c r="P42" s="63"/>
+      <c r="Q42" s="63"/>
+      <c r="R42" s="63"/>
+      <c r="S42" s="63"/>
     </row>
     <row r="43" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="51"/>
-      <c r="N43" s="51"/>
-      <c r="O43" s="51"/>
-      <c r="P43" s="51"/>
-      <c r="Q43" s="51"/>
-      <c r="R43" s="51"/>
-      <c r="S43" s="51"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="63"/>
+      <c r="N43" s="63"/>
+      <c r="O43" s="63"/>
+      <c r="P43" s="63"/>
+      <c r="Q43" s="63"/>
+      <c r="R43" s="63"/>
+      <c r="S43" s="63"/>
     </row>
     <row r="44" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E44" s="51"/>
-      <c r="F44" s="51"/>
-      <c r="G44" s="51"/>
-      <c r="H44" s="51"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="51"/>
-      <c r="K44" s="51"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
-      <c r="N44" s="51"/>
-      <c r="O44" s="51"/>
-      <c r="P44" s="51"/>
-      <c r="Q44" s="51"/>
-      <c r="R44" s="51"/>
-      <c r="S44" s="51"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="63"/>
+      <c r="L44" s="63"/>
+      <c r="M44" s="63"/>
+      <c r="N44" s="63"/>
+      <c r="O44" s="63"/>
+      <c r="P44" s="63"/>
+      <c r="Q44" s="63"/>
+      <c r="R44" s="63"/>
+      <c r="S44" s="63"/>
     </row>
     <row r="45" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E45" s="51"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="51"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="51"/>
-      <c r="N45" s="51"/>
-      <c r="O45" s="51"/>
-      <c r="P45" s="51"/>
-      <c r="Q45" s="51"/>
-      <c r="R45" s="51"/>
-      <c r="S45" s="51"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="63"/>
+      <c r="M45" s="63"/>
+      <c r="N45" s="63"/>
+      <c r="O45" s="63"/>
+      <c r="P45" s="63"/>
+      <c r="Q45" s="63"/>
+      <c r="R45" s="63"/>
+      <c r="S45" s="63"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B52" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B55" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B60" s="4" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C61" s="4" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C62" s="4" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="I13:O15"/>
-    <mergeCell ref="H16:K18"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="K20:M21"/>
     <mergeCell ref="Y12:AC16"/>
     <mergeCell ref="G6:K10"/>
     <mergeCell ref="N30:O39"/>
@@ -2998,6 +3111,12 @@
     <mergeCell ref="I27:O29"/>
     <mergeCell ref="G30:I30"/>
     <mergeCell ref="J30:M30"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="I13:O15"/>
+    <mergeCell ref="H16:K18"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="K20:M21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -3006,10 +3125,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A4:S101"/>
+  <dimension ref="A4:S89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:S8"/>
+    <sheetView topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3024,13 +3143,13 @@
     <row r="4" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
@@ -3041,14 +3160,14 @@
       <c r="S4" s="10"/>
     </row>
     <row r="5" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="69"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="37"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
@@ -3058,33 +3177,33 @@
       <c r="S5" s="10"/>
     </row>
     <row r="6" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="69"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="37"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
-      <c r="R6" s="56" t="s">
+      <c r="R6" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="S6" s="56"/>
+      <c r="S6" s="55"/>
     </row>
     <row r="7" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="69"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="37"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
@@ -3094,14 +3213,14 @@
       <c r="S7" s="10"/>
     </row>
     <row r="8" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="69"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="37"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
@@ -3133,42 +3252,40 @@
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
+      <c r="J10" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
       <c r="S10" s="6"/>
     </row>
     <row r="11" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E11" s="6"/>
-      <c r="F11" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="F11" s="43"/>
       <c r="G11" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="32" t="s">
-        <v>22</v>
-      </c>
       <c r="I11" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
+        <v>19</v>
+      </c>
+      <c r="J11" s="72"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
       <c r="S11" s="6"/>
     </row>
     <row r="12" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3177,34 +3294,34 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="72"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="72"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="72"/>
       <c r="S12" s="6"/>
     </row>
     <row r="13" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E13" s="6"/>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="72"/>
+      <c r="N13" s="72"/>
+      <c r="O13" s="72"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="72"/>
+      <c r="R13" s="72"/>
       <c r="S13" s="6"/>
     </row>
     <row r="14" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3213,185 +3330,217 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+      <c r="O14" s="72"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="72"/>
+      <c r="R14" s="72"/>
       <c r="S14" s="6"/>
     </row>
     <row r="15" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E15" s="6"/>
-      <c r="F15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="72"/>
+      <c r="N15" s="72"/>
+      <c r="O15" s="72"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="72"/>
+      <c r="R15" s="72"/>
       <c r="S15" s="6"/>
     </row>
     <row r="16" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E16" s="6"/>
-      <c r="F16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>84</v>
+      </c>
       <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
+      <c r="H16" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16" s="74"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="72"/>
+      <c r="N16" s="72"/>
+      <c r="O16" s="72"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="72"/>
+      <c r="R16" s="72"/>
       <c r="S16" s="6"/>
     </row>
     <row r="17" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E17" s="6"/>
-      <c r="F17" s="8"/>
+      <c r="F17" s="8" t="s">
+        <v>76</v>
+      </c>
       <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
+      <c r="H17" s="75" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="76"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
+      <c r="N17" s="72"/>
+      <c r="O17" s="72"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="72"/>
+      <c r="R17" s="72"/>
       <c r="S17" s="6"/>
     </row>
     <row r="18" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E18" s="6"/>
-      <c r="F18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>77</v>
+      </c>
       <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="61"/>
+      <c r="H18" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="74"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="72"/>
+      <c r="R18" s="72"/>
       <c r="S18" s="6"/>
     </row>
     <row r="19" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E19" s="6"/>
-      <c r="F19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="61"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="72"/>
+      <c r="Q19" s="72"/>
+      <c r="R19" s="72"/>
       <c r="S19" s="6"/>
     </row>
     <row r="20" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E20" s="6"/>
-      <c r="F20" s="8"/>
+      <c r="F20" s="8" t="s">
+        <v>80</v>
+      </c>
       <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="61"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="72"/>
+      <c r="N20" s="72"/>
+      <c r="O20" s="72"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="72"/>
       <c r="S20" s="6"/>
     </row>
     <row r="21" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E21" s="6"/>
-      <c r="F21" s="8"/>
+      <c r="F21" s="8" t="s">
+        <v>81</v>
+      </c>
       <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
+      <c r="H21" s="75"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="72"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="72"/>
+      <c r="N21" s="72"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="72"/>
       <c r="S21" s="6"/>
     </row>
     <row r="22" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E22" s="6"/>
-      <c r="F22" s="8"/>
+      <c r="F22" s="8" t="s">
+        <v>78</v>
+      </c>
       <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="61"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="61"/>
-      <c r="R22" s="61"/>
+      <c r="H22" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" s="74"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="72"/>
+      <c r="P22" s="72"/>
+      <c r="Q22" s="72"/>
+      <c r="R22" s="72"/>
       <c r="S22" s="6"/>
     </row>
     <row r="23" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E23" s="6"/>
-      <c r="F23" s="8"/>
+      <c r="F23" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="61"/>
+      <c r="H23" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="74"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="72"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="72"/>
+      <c r="R23" s="72"/>
       <c r="S23" s="6"/>
     </row>
     <row r="24" spans="5:19" x14ac:dyDescent="0.25">
       <c r="E24" s="6"/>
-      <c r="F24" s="8"/>
+      <c r="F24" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="61"/>
+      <c r="H24" s="73" t="s">
+        <v>85</v>
+      </c>
+      <c r="I24" s="74"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="72"/>
+      <c r="R24" s="72"/>
       <c r="S24" s="6"/>
     </row>
     <row r="25" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3400,15 +3549,15 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="61"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="72"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="72"/>
+      <c r="Q25" s="72"/>
+      <c r="R25" s="72"/>
       <c r="S25" s="6"/>
     </row>
     <row r="26" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3417,15 +3566,15 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="61"/>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61"/>
-      <c r="N26" s="61"/>
-      <c r="O26" s="61"/>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="61"/>
+      <c r="J26" s="72"/>
+      <c r="K26" s="72"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="72"/>
+      <c r="N26" s="72"/>
+      <c r="O26" s="72"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="72"/>
       <c r="S26" s="6"/>
     </row>
     <row r="27" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3434,15 +3583,15 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61"/>
-      <c r="N27" s="61"/>
-      <c r="O27" s="61"/>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="61"/>
+      <c r="J27" s="72"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="72"/>
+      <c r="P27" s="72"/>
+      <c r="Q27" s="72"/>
+      <c r="R27" s="72"/>
       <c r="S27" s="6"/>
     </row>
     <row r="28" spans="5:19" x14ac:dyDescent="0.25">
@@ -3451,15 +3600,15 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="61"/>
-      <c r="L28" s="61"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="61"/>
-      <c r="O28" s="61"/>
-      <c r="P28" s="61"/>
-      <c r="Q28" s="61"/>
-      <c r="R28" s="61"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="72"/>
       <c r="S28" s="6"/>
     </row>
     <row r="29" spans="5:19" x14ac:dyDescent="0.25">
@@ -3468,15 +3617,15 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="61"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61"/>
-      <c r="Q29" s="61"/>
-      <c r="R29" s="61"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="72"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="72"/>
+      <c r="N29" s="72"/>
+      <c r="O29" s="72"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="72"/>
+      <c r="R29" s="72"/>
       <c r="S29" s="6"/>
     </row>
     <row r="30" spans="5:19" x14ac:dyDescent="0.25">
@@ -3485,15 +3634,15 @@
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
-      <c r="J30" s="61"/>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="61"/>
-      <c r="N30" s="61"/>
-      <c r="O30" s="61"/>
-      <c r="P30" s="61"/>
-      <c r="Q30" s="61"/>
-      <c r="R30" s="61"/>
+      <c r="J30" s="72"/>
+      <c r="K30" s="72"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="72"/>
+      <c r="R30" s="72"/>
       <c r="S30" s="6"/>
     </row>
     <row r="31" spans="5:19" x14ac:dyDescent="0.25">
@@ -3502,15 +3651,15 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
-      <c r="J31" s="61"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="61"/>
-      <c r="N31" s="61"/>
-      <c r="O31" s="61"/>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="61"/>
-      <c r="R31" s="61"/>
+      <c r="J31" s="72"/>
+      <c r="K31" s="72"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="72"/>
+      <c r="N31" s="72"/>
+      <c r="O31" s="72"/>
+      <c r="P31" s="72"/>
+      <c r="Q31" s="72"/>
+      <c r="R31" s="72"/>
       <c r="S31" s="6"/>
     </row>
     <row r="32" spans="5:19" x14ac:dyDescent="0.25">
@@ -3519,15 +3668,15 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
-      <c r="J32" s="61"/>
-      <c r="K32" s="61"/>
-      <c r="L32" s="61"/>
-      <c r="M32" s="61"/>
-      <c r="N32" s="61"/>
-      <c r="O32" s="61"/>
-      <c r="P32" s="61"/>
-      <c r="Q32" s="61"/>
-      <c r="R32" s="61"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="72"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="72"/>
+      <c r="N32" s="72"/>
+      <c r="O32" s="72"/>
+      <c r="P32" s="72"/>
+      <c r="Q32" s="72"/>
+      <c r="R32" s="72"/>
       <c r="S32" s="6"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -3536,15 +3685,15 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="61"/>
-      <c r="L33" s="61"/>
-      <c r="M33" s="61"/>
-      <c r="N33" s="61"/>
-      <c r="O33" s="61"/>
-      <c r="P33" s="61"/>
-      <c r="Q33" s="61"/>
-      <c r="R33" s="61"/>
+      <c r="J33" s="72"/>
+      <c r="K33" s="72"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="72"/>
+      <c r="N33" s="72"/>
+      <c r="O33" s="72"/>
+      <c r="P33" s="72"/>
+      <c r="Q33" s="72"/>
+      <c r="R33" s="72"/>
       <c r="S33" s="6"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -3553,15 +3702,15 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
-      <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
-      <c r="L34" s="61"/>
-      <c r="M34" s="61"/>
-      <c r="N34" s="61"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="61"/>
-      <c r="Q34" s="61"/>
-      <c r="R34" s="61"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="72"/>
+      <c r="N34" s="72"/>
+      <c r="O34" s="72"/>
+      <c r="P34" s="72"/>
+      <c r="Q34" s="72"/>
+      <c r="R34" s="72"/>
       <c r="S34" s="6"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -3570,15 +3719,15 @@
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
-      <c r="J35" s="61"/>
-      <c r="K35" s="61"/>
-      <c r="L35" s="61"/>
-      <c r="M35" s="61"/>
-      <c r="N35" s="61"/>
-      <c r="O35" s="61"/>
-      <c r="P35" s="61"/>
-      <c r="Q35" s="61"/>
-      <c r="R35" s="61"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="72"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="72"/>
+      <c r="P35" s="72"/>
+      <c r="Q35" s="72"/>
+      <c r="R35" s="72"/>
       <c r="S35" s="6"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -3587,15 +3736,15 @@
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
-      <c r="J36" s="61"/>
-      <c r="K36" s="61"/>
-      <c r="L36" s="61"/>
-      <c r="M36" s="61"/>
-      <c r="N36" s="61"/>
-      <c r="O36" s="61"/>
-      <c r="P36" s="61"/>
-      <c r="Q36" s="61"/>
-      <c r="R36" s="61"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="72"/>
+      <c r="P36" s="72"/>
+      <c r="Q36" s="72"/>
+      <c r="R36" s="72"/>
       <c r="S36" s="6"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -3604,15 +3753,15 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
-      <c r="J37" s="61"/>
-      <c r="K37" s="61"/>
-      <c r="L37" s="61"/>
-      <c r="M37" s="61"/>
-      <c r="N37" s="61"/>
-      <c r="O37" s="61"/>
-      <c r="P37" s="61"/>
-      <c r="Q37" s="61"/>
-      <c r="R37" s="61"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="72"/>
+      <c r="P37" s="72"/>
+      <c r="Q37" s="72"/>
+      <c r="R37" s="72"/>
       <c r="S37" s="6"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -3621,15 +3770,15 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
-      <c r="J38" s="61"/>
-      <c r="K38" s="61"/>
-      <c r="L38" s="61"/>
-      <c r="M38" s="61"/>
-      <c r="N38" s="61"/>
-      <c r="O38" s="61"/>
-      <c r="P38" s="61"/>
-      <c r="Q38" s="61"/>
-      <c r="R38" s="61"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="72"/>
+      <c r="N38" s="72"/>
+      <c r="O38" s="72"/>
+      <c r="P38" s="72"/>
+      <c r="Q38" s="72"/>
+      <c r="R38" s="72"/>
       <c r="S38" s="6"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
@@ -3650,78 +3799,78 @@
       <c r="S39" s="6"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E40" s="51" t="s">
+      <c r="E40" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="51"/>
-      <c r="R40" s="51"/>
-      <c r="S40" s="51"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="63"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="63"/>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="63"/>
+      <c r="R40" s="63"/>
+      <c r="S40" s="63"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="51"/>
-      <c r="O41" s="51"/>
-      <c r="P41" s="51"/>
-      <c r="Q41" s="51"/>
-      <c r="R41" s="51"/>
-      <c r="S41" s="51"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="63"/>
+      <c r="N41" s="63"/>
+      <c r="O41" s="63"/>
+      <c r="P41" s="63"/>
+      <c r="Q41" s="63"/>
+      <c r="R41" s="63"/>
+      <c r="S41" s="63"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="51"/>
-      <c r="O42" s="51"/>
-      <c r="P42" s="51"/>
-      <c r="Q42" s="51"/>
-      <c r="R42" s="51"/>
-      <c r="S42" s="51"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="63"/>
+      <c r="N42" s="63"/>
+      <c r="O42" s="63"/>
+      <c r="P42" s="63"/>
+      <c r="Q42" s="63"/>
+      <c r="R42" s="63"/>
+      <c r="S42" s="63"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="51"/>
-      <c r="N43" s="51"/>
-      <c r="O43" s="51"/>
-      <c r="P43" s="51"/>
-      <c r="Q43" s="51"/>
-      <c r="R43" s="51"/>
-      <c r="S43" s="51"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="63"/>
+      <c r="N43" s="63"/>
+      <c r="O43" s="63"/>
+      <c r="P43" s="63"/>
+      <c r="Q43" s="63"/>
+      <c r="R43" s="63"/>
+      <c r="S43" s="63"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -3734,7 +3883,7 @@
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -3745,7 +3894,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -3758,7 +3907,7 @@
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -3770,7 +3919,7 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -3781,15 +3930,15 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51" s="33" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C52" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -3797,7 +3946,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -3805,144 +3954,208 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C54" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D54">
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>43</v>
+      <c r="A55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>90</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>92</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>41</v>
+      <c r="A64" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
-        <v>48</v>
+      <c r="A65" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>49</v>
+      <c r="A74" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>50</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B78" s="35" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="35" t="s">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C85" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C89" t="s">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C90" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C91" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C96" t="s">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D97" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>77</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="15">
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J10:R38"/>
     <mergeCell ref="E40:S43"/>
     <mergeCell ref="G4:K8"/>
     <mergeCell ref="R6:S6"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3952,10 +4165,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A4:S58"/>
+  <dimension ref="A4:S59"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3966,13 +4179,13 @@
     <row r="4" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
@@ -3983,14 +4196,14 @@
       <c r="S4" s="10"/>
     </row>
     <row r="5" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="69"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="37"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
@@ -4000,35 +4213,35 @@
       <c r="S5" s="10"/>
     </row>
     <row r="6" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="69"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="37"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
-      <c r="P6" s="56" t="s">
+      <c r="P6" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56" t="s">
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="S6" s="56"/>
+      <c r="S6" s="55"/>
     </row>
     <row r="7" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="69"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="37"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
@@ -4038,14 +4251,14 @@
       <c r="S7" s="10"/>
     </row>
     <row r="8" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="69"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="37"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
@@ -4055,20 +4268,20 @@
       <c r="S8" s="10"/>
     </row>
     <row r="9" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="40"/>
+      <c r="P9" s="40"/>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
       <c r="S9" s="6"/>
     </row>
     <row r="10" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4079,15 +4292,15 @@
       <c r="I10" s="28"/>
       <c r="J10" s="28"/>
       <c r="K10" s="28"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10" s="79"/>
+      <c r="O10" s="79"/>
+      <c r="P10" s="79"/>
+      <c r="Q10" s="79"/>
+      <c r="R10" s="79"/>
       <c r="S10" s="6"/>
     </row>
     <row r="11" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4098,13 +4311,13 @@
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="74"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="79"/>
+      <c r="R11" s="79"/>
       <c r="S11" s="6"/>
     </row>
     <row r="12" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4115,13 +4328,13 @@
       <c r="I12" s="28"/>
       <c r="J12" s="28"/>
       <c r="K12" s="28"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="74"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="74"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="79"/>
+      <c r="Q12" s="79"/>
+      <c r="R12" s="79"/>
       <c r="S12" s="6"/>
     </row>
     <row r="13" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4132,66 +4345,66 @@
       <c r="I13" s="28"/>
       <c r="J13" s="28"/>
       <c r="K13" s="28"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="74"/>
-      <c r="R13" s="74"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="79"/>
+      <c r="P13" s="79"/>
+      <c r="Q13" s="79"/>
+      <c r="R13" s="79"/>
       <c r="S13" s="6"/>
     </row>
     <row r="14" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="6"/>
       <c r="F14" s="28"/>
-      <c r="G14" s="7"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34"/>
       <c r="K14" s="34"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="74"/>
-      <c r="R14" s="74"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="79"/>
+      <c r="P14" s="79"/>
+      <c r="Q14" s="79"/>
+      <c r="R14" s="79"/>
       <c r="S14" s="6"/>
     </row>
     <row r="15" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E15" s="6"/>
       <c r="F15" s="28"/>
-      <c r="G15" s="62" t="s">
+      <c r="G15" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
       <c r="K15" s="34"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="74"/>
-      <c r="N15" s="74"/>
-      <c r="O15" s="74"/>
-      <c r="P15" s="74"/>
-      <c r="Q15" s="74"/>
-      <c r="R15" s="74"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="79"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="79"/>
+      <c r="R15" s="79"/>
       <c r="S15" s="6"/>
     </row>
     <row r="16" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E16" s="6"/>
       <c r="F16" s="28"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
       <c r="K16" s="34"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="74"/>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="74"/>
-      <c r="R16" s="74"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="79"/>
       <c r="S16" s="6"/>
     </row>
     <row r="17" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4202,13 +4415,13 @@
       <c r="I17" s="28"/>
       <c r="J17" s="28"/>
       <c r="K17" s="28"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74"/>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="74"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
       <c r="S17" s="6"/>
     </row>
     <row r="18" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4219,32 +4432,32 @@
       <c r="I18" s="28"/>
       <c r="J18" s="28"/>
       <c r="K18" s="28"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="74"/>
-      <c r="R18" s="74"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
       <c r="S18" s="6"/>
     </row>
     <row r="19" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E19" s="6"/>
       <c r="F19" s="28" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="74"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="74"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="74"/>
-      <c r="R19" s="74"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
+      <c r="P19" s="79"/>
+      <c r="Q19" s="79"/>
+      <c r="R19" s="79"/>
       <c r="S19" s="6"/>
     </row>
     <row r="20" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4255,32 +4468,32 @@
       <c r="I20" s="28"/>
       <c r="J20" s="28"/>
       <c r="K20" s="28"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="74"/>
-      <c r="N20" s="74"/>
-      <c r="O20" s="74"/>
-      <c r="P20" s="74"/>
-      <c r="Q20" s="74"/>
-      <c r="R20" s="74"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="79"/>
       <c r="S20" s="6"/>
     </row>
     <row r="21" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E21" s="6"/>
       <c r="F21" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G21" s="28"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="74"/>
-      <c r="N21" s="74"/>
-      <c r="O21" s="74"/>
-      <c r="P21" s="74"/>
-      <c r="Q21" s="74"/>
-      <c r="R21" s="74"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="79"/>
       <c r="S21" s="6"/>
     </row>
     <row r="22" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4291,13 +4504,13 @@
       <c r="I22" s="28"/>
       <c r="J22" s="28"/>
       <c r="K22" s="28"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="74"/>
-      <c r="N22" s="74"/>
-      <c r="O22" s="74"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="74"/>
-      <c r="R22" s="74"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
       <c r="S22" s="6"/>
     </row>
     <row r="23" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4308,13 +4521,13 @@
       <c r="I23" s="28"/>
       <c r="J23" s="28"/>
       <c r="K23" s="28"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="74"/>
-      <c r="R23" s="74"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
       <c r="S23" s="6"/>
     </row>
     <row r="24" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4325,49 +4538,49 @@
       <c r="I24" s="28"/>
       <c r="J24" s="28"/>
       <c r="K24" s="28"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74"/>
-      <c r="O24" s="74"/>
-      <c r="P24" s="74"/>
-      <c r="Q24" s="74"/>
-      <c r="R24" s="74"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
       <c r="S24" s="6"/>
     </row>
     <row r="25" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E25" s="6"/>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
-      <c r="H25" s="63" t="s">
+      <c r="H25" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="I25" s="63"/>
+      <c r="I25" s="80"/>
       <c r="J25" s="28"/>
       <c r="K25" s="28"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="74"/>
-      <c r="N25" s="74"/>
-      <c r="O25" s="74"/>
-      <c r="P25" s="74"/>
-      <c r="Q25" s="74"/>
-      <c r="R25" s="74"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="79"/>
+      <c r="R25" s="79"/>
       <c r="S25" s="6"/>
     </row>
     <row r="26" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E26" s="6"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
       <c r="J26" s="28"/>
       <c r="K26" s="28"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="74"/>
-      <c r="N26" s="74"/>
-      <c r="O26" s="74"/>
-      <c r="P26" s="74"/>
-      <c r="Q26" s="74"/>
-      <c r="R26" s="74"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="79"/>
+      <c r="R26" s="79"/>
       <c r="S26" s="6"/>
     </row>
     <row r="27" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4378,13 +4591,13 @@
       <c r="I27" s="28"/>
       <c r="J27" s="28"/>
       <c r="K27" s="28"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="74"/>
-      <c r="O27" s="74"/>
-      <c r="P27" s="74"/>
-      <c r="Q27" s="74"/>
-      <c r="R27" s="74"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="79"/>
+      <c r="N27" s="79"/>
+      <c r="O27" s="79"/>
+      <c r="P27" s="79"/>
+      <c r="Q27" s="79"/>
+      <c r="R27" s="79"/>
       <c r="S27" s="6"/>
     </row>
     <row r="28" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4395,13 +4608,13 @@
       <c r="I28" s="28"/>
       <c r="J28" s="28"/>
       <c r="K28" s="28"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="74"/>
-      <c r="N28" s="74"/>
-      <c r="O28" s="74"/>
-      <c r="P28" s="74"/>
-      <c r="Q28" s="74"/>
-      <c r="R28" s="74"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="79"/>
+      <c r="N28" s="79"/>
+      <c r="O28" s="79"/>
+      <c r="P28" s="79"/>
+      <c r="Q28" s="79"/>
+      <c r="R28" s="79"/>
       <c r="S28" s="6"/>
     </row>
     <row r="29" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4412,13 +4625,13 @@
       <c r="I29" s="28"/>
       <c r="J29" s="28"/>
       <c r="K29" s="28"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="74"/>
-      <c r="O29" s="74"/>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="74"/>
-      <c r="R29" s="74"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="79"/>
+      <c r="R29" s="79"/>
       <c r="S29" s="6"/>
     </row>
     <row r="30" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4429,13 +4642,13 @@
       <c r="I30" s="28"/>
       <c r="J30" s="28"/>
       <c r="K30" s="28"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="74"/>
-      <c r="N30" s="74"/>
-      <c r="O30" s="74"/>
-      <c r="P30" s="74"/>
-      <c r="Q30" s="74"/>
-      <c r="R30" s="74"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="79"/>
       <c r="S30" s="6"/>
     </row>
     <row r="31" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4446,275 +4659,216 @@
       <c r="I31" s="28"/>
       <c r="J31" s="28"/>
       <c r="K31" s="28"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="74"/>
-      <c r="N31" s="74"/>
-      <c r="O31" s="74"/>
-      <c r="P31" s="74"/>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="74"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="79"/>
+      <c r="Q31" s="79"/>
+      <c r="R31" s="79"/>
       <c r="S31" s="6"/>
     </row>
     <row r="32" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
-      <c r="H32" s="72"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="72"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="72"/>
-      <c r="Q32" s="72"/>
-      <c r="R32" s="72"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="40"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="40"/>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
       <c r="S32" s="6"/>
     </row>
     <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="72"/>
-      <c r="P33" s="72"/>
-      <c r="Q33" s="72"/>
-      <c r="R33" s="72"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
       <c r="S33" s="6"/>
     </row>
     <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="72"/>
-      <c r="Q34" s="72"/>
-      <c r="R34" s="72"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="40"/>
+      <c r="P34" s="40"/>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
       <c r="S34" s="6"/>
     </row>
     <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="72"/>
-      <c r="Q35" s="72"/>
-      <c r="R35" s="72"/>
-      <c r="S35" s="6"/>
+      <c r="E35" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="63"/>
+      <c r="R35" s="63"/>
+      <c r="S35" s="63"/>
     </row>
     <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="72"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="72"/>
-      <c r="Q36" s="72"/>
-      <c r="R36" s="72"/>
-      <c r="S36" s="6"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="63"/>
     </row>
     <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="72"/>
-      <c r="O37" s="72"/>
-      <c r="P37" s="72"/>
-      <c r="Q37" s="72"/>
-      <c r="R37" s="72"/>
-      <c r="S37" s="6"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="63"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="63"/>
     </row>
     <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="72"/>
-      <c r="N38" s="72"/>
-      <c r="O38" s="72"/>
-      <c r="P38" s="72"/>
-      <c r="Q38" s="72"/>
-      <c r="R38" s="72"/>
-      <c r="S38" s="6"/>
-    </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="72"/>
-      <c r="N39" s="72"/>
-      <c r="O39" s="72"/>
-      <c r="P39" s="72"/>
-      <c r="Q39" s="72"/>
-      <c r="R39" s="72"/>
-      <c r="S39" s="6"/>
-    </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E40" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="51"/>
-      <c r="R40" s="51"/>
-      <c r="S40" s="51"/>
-    </row>
-    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="51"/>
-      <c r="O41" s="51"/>
-      <c r="P41" s="51"/>
-      <c r="Q41" s="51"/>
-      <c r="R41" s="51"/>
-      <c r="S41" s="51"/>
-    </row>
-    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="51"/>
-      <c r="O42" s="51"/>
-      <c r="P42" s="51"/>
-      <c r="Q42" s="51"/>
-      <c r="R42" s="51"/>
-      <c r="S42" s="51"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="51"/>
-      <c r="N43" s="51"/>
-      <c r="O43" s="51"/>
-      <c r="P43" s="51"/>
-      <c r="Q43" s="51"/>
-      <c r="R43" s="51"/>
-      <c r="S43" s="51"/>
-    </row>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="63"/>
+      <c r="P38" s="63"/>
+      <c r="Q38" s="63"/>
+      <c r="R38" s="63"/>
+      <c r="S38" s="63"/>
+    </row>
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>92</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E40:S43"/>
+  <mergeCells count="9">
+    <mergeCell ref="E35:S38"/>
     <mergeCell ref="G4:K8"/>
     <mergeCell ref="R6:S6"/>
     <mergeCell ref="M10:R31"/>
     <mergeCell ref="P6:Q6"/>
     <mergeCell ref="H25:I26"/>
     <mergeCell ref="G15:J16"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H19:J19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4722,10 +4876,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A3:R59"/>
+  <dimension ref="A3:R55"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4736,13 +4890,13 @@
     <row r="3" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="10"/>
@@ -4753,14 +4907,14 @@
       <c r="R3" s="10"/>
     </row>
     <row r="4" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="69"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="37"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
@@ -4770,35 +4924,35 @@
       <c r="R4" s="10"/>
     </row>
     <row r="5" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="69"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="37"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
-      <c r="O5" s="56" t="s">
+      <c r="O5" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56" t="s">
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="56"/>
+      <c r="R5" s="55"/>
     </row>
     <row r="6" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="69"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="37"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
@@ -4808,14 +4962,14 @@
       <c r="R6" s="10"/>
     </row>
     <row r="7" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="69"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="37"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
@@ -4825,54 +4979,54 @@
       <c r="R7" s="10"/>
     </row>
     <row r="8" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="71"/>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="71"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
       <c r="R8" s="6"/>
     </row>
     <row r="9" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="71"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="71"/>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="71"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
       <c r="R9" s="6"/>
     </row>
     <row r="10" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
       <c r="R10" s="6"/>
     </row>
     <row r="11" spans="4:18" x14ac:dyDescent="0.25">
@@ -4883,51 +5037,51 @@
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
-      <c r="K11" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="77"/>
+      <c r="K11" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+      <c r="Q11" s="82"/>
       <c r="R11" s="6"/>
     </row>
     <row r="12" spans="4:18" ht="30.75" x14ac:dyDescent="0.25">
       <c r="D12" s="6"/>
       <c r="E12" s="28"/>
-      <c r="F12" s="62" t="s">
+      <c r="F12" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
       <c r="J12" s="34"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="77"/>
-      <c r="Q12" s="77"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="82"/>
       <c r="R12" s="6"/>
     </row>
     <row r="13" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D13" s="6"/>
       <c r="E13" s="28"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
       <c r="J13" s="34"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="77"/>
-      <c r="P13" s="77"/>
-      <c r="Q13" s="77"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+      <c r="Q13" s="82"/>
       <c r="R13" s="6"/>
     </row>
     <row r="14" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4937,33 +5091,33 @@
       <c r="G14" s="34"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="77"/>
-      <c r="P14" s="77"/>
-      <c r="Q14" s="77"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
       <c r="R14" s="6"/>
     </row>
     <row r="15" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="6"/>
       <c r="E15" s="28"/>
       <c r="F15" s="28" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="77"/>
-      <c r="Q15" s="77"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+      <c r="Q15" s="82"/>
       <c r="R15" s="6"/>
     </row>
     <row r="16" spans="4:18" x14ac:dyDescent="0.25">
@@ -4974,32 +5128,32 @@
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
-      <c r="M16" s="77"/>
-      <c r="N16" s="77"/>
-      <c r="O16" s="77"/>
-      <c r="P16" s="77"/>
-      <c r="Q16" s="77"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82"/>
+      <c r="Q16" s="82"/>
       <c r="R16" s="6"/>
     </row>
     <row r="17" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D17" s="6"/>
       <c r="E17" s="28"/>
       <c r="F17" s="28" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G17" s="28"/>
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="77"/>
-      <c r="Q17" s="77"/>
+      <c r="K17" s="82"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="82"/>
+      <c r="N17" s="82"/>
+      <c r="O17" s="82"/>
+      <c r="P17" s="82"/>
+      <c r="Q17" s="82"/>
       <c r="R17" s="6"/>
     </row>
     <row r="18" spans="4:18" x14ac:dyDescent="0.25">
@@ -5010,32 +5164,32 @@
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
-      <c r="M18" s="77"/>
-      <c r="N18" s="77"/>
-      <c r="O18" s="77"/>
-      <c r="P18" s="77"/>
-      <c r="Q18" s="77"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="82"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="82"/>
+      <c r="O18" s="82"/>
+      <c r="P18" s="82"/>
+      <c r="Q18" s="82"/>
       <c r="R18" s="6"/>
     </row>
     <row r="19" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D19" s="6"/>
       <c r="E19" s="28"/>
       <c r="F19" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G19" s="28"/>
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="77"/>
-      <c r="Q19" s="77"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="82"/>
+      <c r="N19" s="82"/>
+      <c r="O19" s="82"/>
+      <c r="P19" s="82"/>
+      <c r="Q19" s="82"/>
       <c r="R19" s="6"/>
     </row>
     <row r="20" spans="4:18" x14ac:dyDescent="0.25">
@@ -5046,32 +5200,32 @@
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
       <c r="J20" s="7"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77"/>
-      <c r="P20" s="77"/>
-      <c r="Q20" s="77"/>
+      <c r="K20" s="82"/>
+      <c r="L20" s="82"/>
+      <c r="M20" s="82"/>
+      <c r="N20" s="82"/>
+      <c r="O20" s="82"/>
+      <c r="P20" s="82"/>
+      <c r="Q20" s="82"/>
       <c r="R20" s="6"/>
     </row>
     <row r="21" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D21" s="6"/>
       <c r="E21" s="28"/>
       <c r="F21" s="28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G21" s="28"/>
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
       <c r="J21" s="7"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
-      <c r="M21" s="77"/>
-      <c r="N21" s="77"/>
-      <c r="O21" s="77"/>
-      <c r="P21" s="77"/>
-      <c r="Q21" s="77"/>
+      <c r="K21" s="82"/>
+      <c r="L21" s="82"/>
+      <c r="M21" s="82"/>
+      <c r="N21" s="82"/>
+      <c r="O21" s="82"/>
+      <c r="P21" s="82"/>
+      <c r="Q21" s="82"/>
       <c r="R21" s="6"/>
     </row>
     <row r="22" spans="4:18" x14ac:dyDescent="0.25">
@@ -5082,66 +5236,66 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
-      <c r="M22" s="77"/>
-      <c r="N22" s="77"/>
-      <c r="O22" s="77"/>
-      <c r="P22" s="77"/>
-      <c r="Q22" s="77"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="82"/>
       <c r="R22" s="6"/>
     </row>
     <row r="23" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D23" s="6"/>
       <c r="E23" s="28"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
-      <c r="M23" s="77"/>
-      <c r="N23" s="77"/>
-      <c r="O23" s="77"/>
-      <c r="P23" s="77"/>
-      <c r="Q23" s="77"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="82"/>
+      <c r="L23" s="82"/>
+      <c r="M23" s="82"/>
+      <c r="N23" s="82"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="82"/>
+      <c r="Q23" s="82"/>
       <c r="R23" s="6"/>
     </row>
     <row r="24" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D24" s="6"/>
       <c r="E24" s="28"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="63" t="s">
+      <c r="F24" s="41"/>
+      <c r="G24" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="H24" s="63"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="77"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="77"/>
-      <c r="Q24" s="77"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="82"/>
+      <c r="L24" s="82"/>
+      <c r="M24" s="82"/>
+      <c r="N24" s="82"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="82"/>
+      <c r="Q24" s="82"/>
       <c r="R24" s="6"/>
     </row>
     <row r="25" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D25" s="6"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
-      <c r="M25" s="77"/>
-      <c r="N25" s="77"/>
-      <c r="O25" s="77"/>
-      <c r="P25" s="77"/>
-      <c r="Q25" s="77"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="82"/>
+      <c r="O25" s="82"/>
+      <c r="P25" s="82"/>
+      <c r="Q25" s="82"/>
       <c r="R25" s="6"/>
     </row>
     <row r="26" spans="4:18" x14ac:dyDescent="0.25">
@@ -5152,13 +5306,13 @@
       <c r="H26" s="28"/>
       <c r="I26" s="28"/>
       <c r="J26" s="28"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="77"/>
-      <c r="N26" s="77"/>
-      <c r="O26" s="77"/>
-      <c r="P26" s="77"/>
-      <c r="Q26" s="77"/>
+      <c r="K26" s="82"/>
+      <c r="L26" s="82"/>
+      <c r="M26" s="82"/>
+      <c r="N26" s="82"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="82"/>
+      <c r="Q26" s="82"/>
       <c r="R26" s="6"/>
     </row>
     <row r="27" spans="4:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5169,13 +5323,13 @@
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="28"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
-      <c r="M27" s="77"/>
-      <c r="N27" s="77"/>
-      <c r="O27" s="77"/>
-      <c r="P27" s="77"/>
-      <c r="Q27" s="77"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="82"/>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="82"/>
       <c r="R27" s="6"/>
     </row>
     <row r="28" spans="4:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5186,13 +5340,13 @@
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="28"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="77"/>
-      <c r="Q28" s="77"/>
+      <c r="K28" s="82"/>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="82"/>
+      <c r="Q28" s="82"/>
       <c r="R28" s="6"/>
     </row>
     <row r="29" spans="4:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -5203,291 +5357,182 @@
       <c r="H29" s="28"/>
       <c r="I29" s="28"/>
       <c r="J29" s="28"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="77"/>
-      <c r="P29" s="77"/>
-      <c r="Q29" s="77"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="82"/>
       <c r="R29" s="6"/>
     </row>
     <row r="30" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="71"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
+      <c r="R30" s="39"/>
     </row>
     <row r="31" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="71"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
     </row>
     <row r="32" spans="4:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="71"/>
-      <c r="M32" s="71"/>
-      <c r="N32" s="71"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="71"/>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="71"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="39"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
     </row>
     <row r="33" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="71"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="71"/>
+      <c r="D33" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="63"/>
+      <c r="Q33" s="63"/>
+      <c r="R33" s="63"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="71"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="63"/>
+      <c r="Q34" s="63"/>
+      <c r="R34" s="63"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="71"/>
-      <c r="Q35" s="71"/>
-      <c r="R35" s="71"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="63"/>
+      <c r="R35" s="63"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="71"/>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="71"/>
-      <c r="R36" s="71"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="71"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="71"/>
-      <c r="O37" s="71"/>
-      <c r="P37" s="71"/>
-      <c r="Q37" s="71"/>
-      <c r="R37" s="71"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="71"/>
-      <c r="M38" s="71"/>
-      <c r="N38" s="71"/>
-      <c r="O38" s="71"/>
-      <c r="P38" s="71"/>
-      <c r="Q38" s="71"/>
-      <c r="R38" s="71"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D39" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="51"/>
-      <c r="Q39" s="51"/>
-      <c r="R39" s="51"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="51"/>
-      <c r="R40" s="51"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="51"/>
-      <c r="O41" s="51"/>
-      <c r="P41" s="51"/>
-      <c r="Q41" s="51"/>
-      <c r="R41" s="51"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="51"/>
-      <c r="O42" s="51"/>
-      <c r="P42" s="51"/>
-      <c r="Q42" s="51"/>
-      <c r="R42" s="51"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="63"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>76</v>
-      </c>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D39:R42"/>
+    <mergeCell ref="D33:R36"/>
     <mergeCell ref="G24:H25"/>
     <mergeCell ref="K11:Q29"/>
     <mergeCell ref="F12:I13"/>
@@ -5515,13 +5560,13 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
       <c r="N4" s="10"/>
       <c r="O4" s="15"/>
       <c r="P4" s="15"/>
@@ -5534,11 +5579,11 @@
       <c r="F5" s="15"/>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
       <c r="N5" s="10"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
@@ -5551,16 +5596,16 @@
       <c r="F6" s="15"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
       <c r="N6" s="10"/>
       <c r="O6" s="15"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
     </row>
     <row r="7" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D7" s="15"/>
@@ -5568,11 +5613,11 @@
       <c r="F7" s="15"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
       <c r="N7" s="10"/>
       <c r="O7" s="15"/>
       <c r="P7" s="15"/>
@@ -5585,11 +5630,11 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
@@ -5687,11 +5732,11 @@
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="65"/>
-      <c r="L14" s="65"/>
-      <c r="M14" s="65"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
       <c r="N14" s="31"/>
       <c r="O14" s="31"/>
       <c r="P14" s="31"/>
@@ -5704,11 +5749,11 @@
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
       <c r="H15" s="31"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
       <c r="N15" s="31"/>
       <c r="O15" s="31"/>
       <c r="P15" s="31"/>
@@ -5721,11 +5766,11 @@
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
-      <c r="M16" s="65"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
       <c r="N16" s="31"/>
       <c r="O16" s="31"/>
       <c r="P16" s="31"/>
@@ -5873,12 +5918,12 @@
       <c r="E25" s="31"/>
       <c r="F25" s="31"/>
       <c r="G25" s="31"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="85"/>
       <c r="N25" s="31"/>
       <c r="O25" s="31"/>
       <c r="P25" s="31"/>
@@ -5890,12 +5935,12 @@
       <c r="E26" s="31"/>
       <c r="F26" s="31"/>
       <c r="G26" s="31"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="66"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="85"/>
+      <c r="M26" s="85"/>
       <c r="N26" s="31"/>
       <c r="O26" s="31"/>
       <c r="P26" s="31"/>
@@ -5943,8 +5988,8 @@
       <c r="G29" s="31"/>
       <c r="H29" s="31"/>
       <c r="I29" s="31"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="86"/>
       <c r="L29" s="31"/>
       <c r="M29" s="31"/>
       <c r="N29" s="31"/>
@@ -5960,8 +6005,8 @@
       <c r="G30" s="31"/>
       <c r="H30" s="31"/>
       <c r="I30" s="31"/>
-      <c r="J30" s="67"/>
-      <c r="K30" s="67"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
       <c r="L30" s="31"/>
       <c r="M30" s="31"/>
       <c r="N30" s="31"/>
@@ -6124,74 +6169,74 @@
       <c r="R39" s="6"/>
     </row>
     <row r="40" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D40" s="51" t="s">
+      <c r="D40" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-      <c r="I40" s="51"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="51"/>
-      <c r="P40" s="51"/>
-      <c r="Q40" s="51"/>
-      <c r="R40" s="51"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="63"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="63"/>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="63"/>
+      <c r="R40" s="63"/>
     </row>
     <row r="41" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="51"/>
-      <c r="O41" s="51"/>
-      <c r="P41" s="51"/>
-      <c r="Q41" s="51"/>
-      <c r="R41" s="51"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="63"/>
+      <c r="N41" s="63"/>
+      <c r="O41" s="63"/>
+      <c r="P41" s="63"/>
+      <c r="Q41" s="63"/>
+      <c r="R41" s="63"/>
     </row>
     <row r="42" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="51"/>
-      <c r="O42" s="51"/>
-      <c r="P42" s="51"/>
-      <c r="Q42" s="51"/>
-      <c r="R42" s="51"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="63"/>
+      <c r="N42" s="63"/>
+      <c r="O42" s="63"/>
+      <c r="P42" s="63"/>
+      <c r="Q42" s="63"/>
+      <c r="R42" s="63"/>
     </row>
     <row r="43" spans="4:18" x14ac:dyDescent="0.25">
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="51"/>
-      <c r="N43" s="51"/>
-      <c r="O43" s="51"/>
-      <c r="P43" s="51"/>
-      <c r="Q43" s="51"/>
-      <c r="R43" s="51"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="63"/>
+      <c r="N43" s="63"/>
+      <c r="O43" s="63"/>
+      <c r="P43" s="63"/>
+      <c r="Q43" s="63"/>
+      <c r="R43" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="6">
